--- a/Unverified multiformat sources/Imports_1734_Nantes Hasna à faire corriger.xlsx
+++ b/Unverified multiformat sources/Imports_1734_Nantes Hasna à faire corriger.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumedaudin/Documents/Recherche/Commerce International Français XVIIIe.xls/Balance du commerce/Retranscriptions_Commerce_France/toflit18_data_GIT/Unverified multiformat sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F64630-E25E-6648-AEA9-7168405BB8B2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A63B57-E925-C844-81D0-C631ED3E1E30}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22060" windowHeight="14760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entrées" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017" iterateDelta="1E-4"/>
+  <calcPr calcId="179021" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -1872,10 +1872,10 @@
   </sheetPr>
   <dimension ref="A1:AMJ428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A368" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O1" sqref="O1"/>
-      <selection pane="bottomLeft" activeCell="W1" sqref="W1"/>
+      <selection pane="bottomLeft" activeCell="O390" sqref="O390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30733,15 +30733,15 @@
         <v>35</v>
       </c>
       <c r="N389" s="28">
-        <v>18</v>
+        <v>0.18</v>
       </c>
       <c r="O389" s="28">
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="P389" s="29"/>
       <c r="Q389" s="30">
         <f t="shared" si="53"/>
-        <v>18.75</v>
+        <v>0.1875</v>
       </c>
       <c r="R389" s="29">
         <v>1044064</v>
@@ -30754,11 +30754,11 @@
       </c>
       <c r="V389" s="33">
         <f t="shared" si="51"/>
-        <v>107246250</v>
+        <v>1072462.5</v>
       </c>
       <c r="W389" s="34">
         <f t="shared" si="54"/>
-        <v>-106202186</v>
+        <v>-28398.5</v>
       </c>
       <c r="X389" s="23" t="s">
         <v>37</v>
@@ -30811,15 +30811,15 @@
         <v>35</v>
       </c>
       <c r="N390" s="28">
-        <v>13</v>
+        <v>0.13</v>
       </c>
       <c r="O390" s="28">
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="P390" s="29"/>
       <c r="Q390" s="30">
         <f t="shared" si="53"/>
-        <v>13.75</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="R390" s="29">
         <v>1811101</v>
@@ -30832,11 +30832,11 @@
       </c>
       <c r="V390" s="33">
         <f t="shared" si="51"/>
-        <v>153610187.5</v>
+        <v>1536101.8750000002</v>
       </c>
       <c r="W390" s="34">
         <f t="shared" si="54"/>
-        <v>-151799086.5</v>
+        <v>274999.12499999977</v>
       </c>
       <c r="X390" s="23" t="s">
         <v>208</v>
